--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_6_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_6_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>413428.3688493093</v>
+        <v>479745.9840688194</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>406463.2981009823</v>
+        <v>406463.2981009827</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>107.4693810432951</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="4">
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>70.34400780127524</v>
       </c>
     </row>
     <row r="6">
@@ -977,16 +977,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>130.8309467350027</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>90.50278177497621</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>84.41978777916125</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>155.5825568932142</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>20.75911149906596</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G11" t="n">
-        <v>268.0607811825788</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
-        <v>28.80700501538449</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>11.29456926877352</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>99.98347809235189</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.4633753356636</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>111.8935323209073</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>97.14353343492382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>189.8931039215388</v>
       </c>
       <c r="T14" t="n">
-        <v>219.4215416234949</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1691,13 +1691,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>72.27434132826716</v>
       </c>
       <c r="S15" t="n">
         <v>163.3413660663108</v>
@@ -1742,10 +1742,10 @@
         <v>198.35454715303</v>
       </c>
       <c r="U15" t="n">
-        <v>100.5669400966617</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>174.2616037371026</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>131.0102864828594</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>131.0102864828597</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>190.6958526787975</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>148.6422123360901</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>94.63926978364054</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>155.4526127311941</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>61.60916146257664</v>
+        <v>58.49852621786729</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
@@ -2143,10 +2143,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.19029374363589</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="23">
@@ -2323,13 +2323,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.93606219608125</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>24.08852816170401</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>52.4736908254684</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>176.7166301627352</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>113.3035999618933</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>227.4937820812323</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>94.63926978364054</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2797,22 +2797,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>94.42605519832958</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>1.925119512544002</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>50.05665370612845</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>189.5968436493441</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>45.53661789137298</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>103.2573236523129</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>94.63926978364057</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>41.03250833502995</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>68.01893541001338</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>81.2292991887101</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>128.7835007017903</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>297.5642569908811</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>103.5473831533017</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.6056447625528</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>126.8511502120404</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>82.32283028091754</v>
       </c>
       <c r="I41" t="n">
-        <v>100.9468274580102</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250842</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>208.3423105940811</v>
+        <v>22.28704139029297</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>290.5286403308937</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>307.7676307244763</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4191,16 +4191,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>216.6993815150879</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4357,25 +4357,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>728.6161971483371</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U2" t="n">
-        <v>728.6161971483371</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V2" t="n">
-        <v>728.6161971483371</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W2" t="n">
-        <v>728.6161971483371</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X2" t="n">
-        <v>485.167420504237</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>451.2235123993538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>276.7704831182267</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>127.8360734569754</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>127.8360734569754</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
         <v>19.28114311021272</v>
@@ -4412,13 +4412,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
         <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>619.4388494194218</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>619.4388494194218</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>619.4388494194218</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4597,22 +4597,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.8157010833278</v>
+        <v>325.8866438408374</v>
       </c>
       <c r="C6" t="n">
-        <v>165.8157010833278</v>
+        <v>151.4336145597104</v>
       </c>
       <c r="D6" t="n">
-        <v>165.8157010833278</v>
+        <v>151.4336145597104</v>
       </c>
       <c r="E6" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
         <v>19.28114311021272</v>
@@ -4649,13 +4649,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
         <v>473.4149733950735</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>872.6402042227814</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>872.6402042227814</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>872.6402042227814</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>644.4165859591706</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V6" t="n">
-        <v>409.2644777274278</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W6" t="n">
-        <v>165.8157010833278</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X6" t="n">
-        <v>165.8157010833278</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y6" t="n">
-        <v>165.8157010833278</v>
+        <v>325.8866438408374</v>
       </c>
     </row>
     <row r="7">
@@ -4743,19 +4743,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
         <v>19.28114311021272</v>
@@ -4834,19 +4834,19 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
         <v>262.7299197543128</v>
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
         <v>304.2053859195205</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>705.7335281915883</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V9" t="n">
-        <v>470.5814199598456</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W9" t="n">
-        <v>227.1326433157456</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4995,10 +4995,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>850.7529338106226</v>
+        <v>600.9532674636398</v>
       </c>
       <c r="C11" t="n">
-        <v>850.7529338106226</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="D11" t="n">
-        <v>850.7529338106226</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="E11" t="n">
-        <v>571.8069603738999</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="F11" t="n">
-        <v>292.8609869371771</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G11" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H11" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I11" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J11" t="n">
-        <v>22.09252109618846</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K11" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L11" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823544</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P11" t="n">
         <v>1099.465256491931</v>
@@ -5071,22 +5071,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T11" t="n">
-        <v>1104.626054809422</v>
+        <v>879.8992409003624</v>
       </c>
       <c r="U11" t="n">
-        <v>850.7529338106226</v>
+        <v>879.8992409003624</v>
       </c>
       <c r="V11" t="n">
-        <v>850.7529338106226</v>
+        <v>879.8992409003624</v>
       </c>
       <c r="W11" t="n">
-        <v>850.7529338106226</v>
+        <v>879.8992409003624</v>
       </c>
       <c r="X11" t="n">
-        <v>850.7529338106226</v>
+        <v>600.9532674636398</v>
       </c>
       <c r="Y11" t="n">
-        <v>850.7529338106226</v>
+        <v>600.9532674636398</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>196.5455503773155</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C12" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D12" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E12" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F12" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G12" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H12" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I12" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J12" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K12" t="n">
-        <v>22.09252109618844</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L12" t="n">
-        <v>268.2479876888895</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M12" t="n">
-        <v>541.6429362542214</v>
+        <v>555.4329354292295</v>
       </c>
       <c r="N12" t="n">
-        <v>641.2451212288496</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="O12" t="n">
-        <v>907.7419348121334</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="P12" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q12" t="n">
         <v>1104.626054809422</v>
@@ -5147,25 +5147,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S12" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="T12" t="n">
-        <v>1075.528069945397</v>
+        <v>730.7421420887096</v>
       </c>
       <c r="U12" t="n">
-        <v>847.3094575795449</v>
+        <v>719.3334862616656</v>
       </c>
       <c r="V12" t="n">
-        <v>612.1573493478022</v>
+        <v>484.1813780299229</v>
       </c>
       <c r="W12" t="n">
-        <v>612.1573493478022</v>
+        <v>229.9440213017212</v>
       </c>
       <c r="X12" t="n">
-        <v>404.3058491422694</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y12" t="n">
-        <v>196.5455503773155</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L13" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N13" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O13" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P13" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q13" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R13" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S13" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T13" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U13" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V13" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>908.4866331680744</v>
+        <v>980.9011664443733</v>
       </c>
       <c r="C14" t="n">
-        <v>807.4932209535775</v>
+        <v>980.9011664443733</v>
       </c>
       <c r="D14" t="n">
-        <v>449.227522346827</v>
+        <v>980.9011664443733</v>
       </c>
       <c r="E14" t="n">
-        <v>449.227522346827</v>
+        <v>980.9011664443733</v>
       </c>
       <c r="F14" t="n">
-        <v>38.2416175572194</v>
+        <v>569.9152616547658</v>
       </c>
       <c r="G14" t="n">
-        <v>38.2416175572194</v>
+        <v>151.2653875783379</v>
       </c>
       <c r="H14" t="n">
-        <v>38.2416175572194</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="I14" t="n">
-        <v>38.2416175572194</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="J14" t="n">
-        <v>96.93923871827201</v>
+        <v>96.93923871827235</v>
       </c>
       <c r="K14" t="n">
-        <v>305.6565612977713</v>
+        <v>305.6565612977718</v>
       </c>
       <c r="L14" t="n">
-        <v>616.8654835480074</v>
+        <v>616.8654835480078</v>
       </c>
       <c r="M14" t="n">
-        <v>979.7519185640732</v>
+        <v>979.7519185640738</v>
       </c>
       <c r="N14" t="n">
-        <v>1333.878237938973</v>
+        <v>1333.878237938974</v>
       </c>
       <c r="O14" t="n">
-        <v>1623.082041653884</v>
+        <v>1623.082041653885</v>
       </c>
       <c r="P14" t="n">
-        <v>1832.236414250552</v>
+        <v>1832.236414250553</v>
       </c>
       <c r="Q14" t="n">
-        <v>1912.08087786097</v>
+        <v>1912.080877860971</v>
       </c>
       <c r="R14" t="n">
-        <v>1813.956096613572</v>
+        <v>1912.080877860971</v>
       </c>
       <c r="S14" t="n">
-        <v>1813.956096613572</v>
+        <v>1720.269661778609</v>
       </c>
       <c r="T14" t="n">
-        <v>1592.318175781759</v>
+        <v>1720.269661778609</v>
       </c>
       <c r="U14" t="n">
-        <v>1592.318175781759</v>
+        <v>1720.269661778609</v>
       </c>
       <c r="V14" t="n">
-        <v>1261.255288438188</v>
+        <v>1720.269661778609</v>
       </c>
       <c r="W14" t="n">
-        <v>908.4866331680744</v>
+        <v>1367.501006508495</v>
       </c>
       <c r="X14" t="n">
-        <v>908.4866331680744</v>
+        <v>1367.501006508495</v>
       </c>
       <c r="Y14" t="n">
-        <v>908.4866331680744</v>
+        <v>1367.501006508495</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>371.9321018438019</v>
+        <v>667.4010694781682</v>
       </c>
       <c r="C15" t="n">
-        <v>197.4790725626749</v>
+        <v>492.9480401970412</v>
       </c>
       <c r="D15" t="n">
-        <v>197.4790725626749</v>
+        <v>344.01363053579</v>
       </c>
       <c r="E15" t="n">
-        <v>38.2416175572194</v>
+        <v>184.7761755303345</v>
       </c>
       <c r="F15" t="n">
-        <v>38.2416175572194</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="G15" t="n">
-        <v>38.2416175572194</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="H15" t="n">
-        <v>38.2416175572194</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="I15" t="n">
-        <v>38.2416175572194</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="J15" t="n">
-        <v>38.2416175572194</v>
+        <v>79.50813891877796</v>
       </c>
       <c r="K15" t="n">
-        <v>211.7519900452721</v>
+        <v>276.6600398753084</v>
       </c>
       <c r="L15" t="n">
-        <v>538.2514472238799</v>
+        <v>603.1594970539164</v>
       </c>
       <c r="M15" t="n">
-        <v>971.2401354071247</v>
+        <v>1036.148185237161</v>
       </c>
       <c r="N15" t="n">
-        <v>1431.395759155985</v>
+        <v>1496.303808986021</v>
       </c>
       <c r="O15" t="n">
-        <v>1785.932577937</v>
+        <v>1518.388592024568</v>
       </c>
       <c r="P15" t="n">
-        <v>1785.932577937</v>
+        <v>1785.932577937001</v>
       </c>
       <c r="Q15" t="n">
-        <v>1912.08087786097</v>
+        <v>1912.080877860971</v>
       </c>
       <c r="R15" t="n">
-        <v>1912.08087786097</v>
+        <v>1839.076492680904</v>
       </c>
       <c r="S15" t="n">
-        <v>1747.089599006111</v>
+        <v>1674.085213826044</v>
       </c>
       <c r="T15" t="n">
-        <v>1546.731470568707</v>
+        <v>1473.72708538864</v>
       </c>
       <c r="U15" t="n">
-        <v>1445.148702794301</v>
+        <v>1473.72708538864</v>
       </c>
       <c r="V15" t="n">
-        <v>1209.996594562558</v>
+        <v>1297.705263431971</v>
       </c>
       <c r="W15" t="n">
-        <v>955.7592378343566</v>
+        <v>1043.467906703769</v>
       </c>
       <c r="X15" t="n">
-        <v>747.9077376288237</v>
+        <v>835.6164064982363</v>
       </c>
       <c r="Y15" t="n">
-        <v>540.1474388638699</v>
+        <v>835.6164064982363</v>
       </c>
     </row>
     <row r="16">
@@ -5412,61 +5412,61 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.2416175572194</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="C16" t="n">
-        <v>38.2416175572194</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="D16" t="n">
-        <v>38.2416175572194</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="E16" t="n">
-        <v>38.2416175572194</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="F16" t="n">
-        <v>38.2416175572194</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="G16" t="n">
-        <v>38.2416175572194</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="H16" t="n">
-        <v>38.2416175572194</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="I16" t="n">
-        <v>38.2416175572194</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="J16" t="n">
-        <v>38.2416175572194</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="K16" t="n">
-        <v>59.50088325727411</v>
+        <v>59.5008832572742</v>
       </c>
       <c r="L16" t="n">
-        <v>142.2318586473015</v>
+        <v>142.2318586473017</v>
       </c>
       <c r="M16" t="n">
-        <v>239.8491955519028</v>
+        <v>239.849195551903</v>
       </c>
       <c r="N16" t="n">
-        <v>340.5800267922418</v>
+        <v>340.5800267922421</v>
       </c>
       <c r="O16" t="n">
-        <v>417.6049576856849</v>
+        <v>417.6049576856852</v>
       </c>
       <c r="P16" t="n">
-        <v>459.992410304139</v>
+        <v>459.9924103041393</v>
       </c>
       <c r="Q16" t="n">
-        <v>459.992410304139</v>
+        <v>459.9924103041393</v>
       </c>
       <c r="R16" t="n">
-        <v>459.992410304139</v>
+        <v>459.9924103041393</v>
       </c>
       <c r="S16" t="n">
-        <v>459.992410304139</v>
+        <v>459.9924103041393</v>
       </c>
       <c r="T16" t="n">
-        <v>327.65878759418</v>
+        <v>459.9924103041393</v>
       </c>
       <c r="U16" t="n">
         <v>327.65878759418</v>
@@ -5475,13 +5475,13 @@
         <v>327.65878759418</v>
       </c>
       <c r="W16" t="n">
-        <v>38.2416175572194</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="X16" t="n">
-        <v>38.2416175572194</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.2416175572194</v>
+        <v>38.24161755721943</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1320.425425970681</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="C17" t="n">
-        <v>951.4629090302697</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="D17" t="n">
-        <v>593.1972104235191</v>
+        <v>1556.175464093619</v>
       </c>
       <c r="E17" t="n">
-        <v>207.4089578252748</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F17" t="n">
-        <v>207.4089578252748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
         <v>207.4089578252748</v>
@@ -5521,7 +5521,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U17" t="n">
-        <v>2247.308246834948</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V17" t="n">
-        <v>2247.308246834948</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W17" t="n">
-        <v>2247.308246834948</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X17" t="n">
-        <v>2097.164598010615</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="Y17" t="n">
-        <v>1707.025266034803</v>
+        <v>1914.44116270037</v>
       </c>
     </row>
     <row r="18">
@@ -5585,10 +5585,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
         <v>53.94298182036445</v>
@@ -5679,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064344</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U19" t="n">
-        <v>438.9553738610024</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V19" t="n">
-        <v>438.9553738610024</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W19" t="n">
-        <v>149.5382038240418</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X19" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1330.912423534854</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="C20" t="n">
-        <v>1330.912423534854</v>
+        <v>798.4928208132003</v>
       </c>
       <c r="D20" t="n">
-        <v>1330.912423534854</v>
+        <v>440.2271222064498</v>
       </c>
       <c r="E20" t="n">
-        <v>945.12417093661</v>
+        <v>440.2271222064498</v>
       </c>
       <c r="F20" t="n">
-        <v>534.1382661470025</v>
+        <v>440.2271222064498</v>
       </c>
       <c r="G20" t="n">
-        <v>116.1744580451893</v>
+        <v>440.2271222064498</v>
       </c>
       <c r="H20" t="n">
-        <v>116.1744580451893</v>
+        <v>113.0324022424526</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5779,25 +5779,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U20" t="n">
-        <v>2048.575150942547</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V20" t="n">
-        <v>1717.512263598976</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W20" t="n">
-        <v>1717.512263598976</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X20" t="n">
-        <v>1717.512263598976</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y20" t="n">
-        <v>1717.512263598976</v>
+        <v>1167.455337753612</v>
       </c>
     </row>
     <row r="21">
@@ -5807,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>369.8327295799424</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C22" t="n">
-        <v>369.8327295799424</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D22" t="n">
-        <v>369.8327295799424</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E22" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5949,13 +5949,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X22" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y22" t="n">
-        <v>369.8327295799424</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1628.293017861605</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C23" t="n">
-        <v>1259.330500921194</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D23" t="n">
-        <v>901.0648023144433</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>515.276549716199</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>515.276549716199</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>97.31274161438591</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>97.31274161438591</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2672.817244390239</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2496.639756704409</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2278.005089676471</v>
       </c>
       <c r="U23" t="n">
-        <v>2388.358616186807</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="V23" t="n">
-        <v>2388.358616186807</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="W23" t="n">
-        <v>2388.358616186807</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="X23" t="n">
-        <v>2014.892857925727</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y23" t="n">
-        <v>2014.892857925727</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
@@ -6107,10 +6107,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>257.0633493392339</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="C25" t="n">
-        <v>257.0633493392339</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D25" t="n">
-        <v>106.9467099268982</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E25" t="n">
-        <v>106.9467099268982</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H25" t="n">
         <v>53.94298182036445</v>
@@ -6177,22 +6177,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="W25" t="n">
-        <v>438.7118141694736</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="X25" t="n">
-        <v>438.7118141694736</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="Y25" t="n">
-        <v>438.7118141694736</v>
+        <v>549.6273375774088</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1640.777806202926</v>
+        <v>1135.888471323017</v>
       </c>
       <c r="C26" t="n">
-        <v>1271.815289262514</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="D26" t="n">
-        <v>913.549590655764</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E26" t="n">
-        <v>913.549590655764</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F26" t="n">
-        <v>913.549590655764</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G26" t="n">
-        <v>495.5857825539508</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>168.3910625899537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V26" t="n">
-        <v>1993.54646147304</v>
+        <v>2248.722724918333</v>
       </c>
       <c r="W26" t="n">
-        <v>1640.777806202926</v>
+        <v>1895.954069648219</v>
       </c>
       <c r="X26" t="n">
-        <v>1640.777806202926</v>
+        <v>1522.488311387139</v>
       </c>
       <c r="Y26" t="n">
-        <v>1640.777806202926</v>
+        <v>1522.488311387139</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6329,19 +6329,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
         <v>53.94298182036445</v>
@@ -6390,46 +6390,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610024</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V28" t="n">
-        <v>438.9553738610024</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>936.2491605982757</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C29" t="n">
-        <v>567.286643657864</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D29" t="n">
-        <v>567.286643657864</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E29" t="n">
-        <v>567.286643657864</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F29" t="n">
-        <v>567.286643657864</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G29" t="n">
-        <v>149.3228355560509</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
-        <v>149.3228355560509</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2695.204525854037</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U29" t="n">
-        <v>1993.54646147304</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V29" t="n">
-        <v>1662.48357412947</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W29" t="n">
-        <v>1309.714918859356</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X29" t="n">
-        <v>936.2491605982757</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y29" t="n">
-        <v>936.2491605982757</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="30">
@@ -6524,10 +6524,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
         <v>359.3385232961342</v>
@@ -6536,7 +6536,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
@@ -6554,13 +6554,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>104.5052582912013</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>104.5052582912013</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>104.5052582912013</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>104.5052582912013</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>104.5052582912013</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>104.5052582912013</v>
       </c>
       <c r="H31" t="n">
         <v>53.94298182036445</v>
@@ -6627,46 +6627,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T31" t="n">
-        <v>536.6170209242687</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U31" t="n">
-        <v>536.6170209242687</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V31" t="n">
-        <v>281.9325327183818</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="W31" t="n">
-        <v>281.9325327183818</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>104.5052582912013</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1314.38774159731</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="C32" t="n">
-        <v>1314.38774159731</v>
+        <v>869.1911689453821</v>
       </c>
       <c r="D32" t="n">
-        <v>1314.38774159731</v>
+        <v>510.9254703386316</v>
       </c>
       <c r="E32" t="n">
-        <v>1314.38774159731</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F32" t="n">
-        <v>903.4018368077029</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
-        <v>485.4380287058898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>158.2433087418926</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6736,16 +6736,16 @@
         <v>2388.358616186807</v>
       </c>
       <c r="V32" t="n">
-        <v>2057.295728843236</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W32" t="n">
-        <v>1704.527073573122</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X32" t="n">
-        <v>1704.527073573122</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y32" t="n">
-        <v>1314.38774159731</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="33">
@@ -6761,43 +6761,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G34" t="n">
         <v>53.94298182036445</v>
@@ -6864,46 +6864,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>343.360151857325</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>686.6820060902423</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>830.1724885289282</v>
+        <v>1034.617283051398</v>
       </c>
       <c r="C35" t="n">
-        <v>830.1724885289282</v>
+        <v>1034.617283051398</v>
       </c>
       <c r="D35" t="n">
-        <v>471.9067899221776</v>
+        <v>1034.617283051398</v>
       </c>
       <c r="E35" t="n">
-        <v>471.9067899221776</v>
+        <v>1034.617283051398</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
@@ -6943,13 +6943,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.48357412947</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W35" t="n">
-        <v>1662.48357412947</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X35" t="n">
-        <v>1289.01781586839</v>
+        <v>1421.21712311552</v>
       </c>
       <c r="Y35" t="n">
-        <v>898.8784838925781</v>
+        <v>1421.21712311552</v>
       </c>
     </row>
     <row r="36">
@@ -6992,34 +6992,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L36" t="n">
         <v>713.8062203571349</v>
@@ -7028,19 +7028,19 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
         <v>2488.762748073963</v>
@@ -7055,10 +7055,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U37" t="n">
-        <v>598.0446400632119</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V37" t="n">
         <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1878.515311311824</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="C38" t="n">
-        <v>1509.552794371412</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D38" t="n">
-        <v>1151.287095764662</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E38" t="n">
-        <v>765.4988431664176</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F38" t="n">
-        <v>354.51293837681</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036445</v>
@@ -7204,22 +7204,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2537.527085232249</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2283.765299870341</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548716</v>
+        <v>1952.70241252677</v>
       </c>
       <c r="W38" t="n">
-        <v>2642.120401548716</v>
+        <v>1599.933757256656</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.654643287636</v>
+        <v>1599.933757256656</v>
       </c>
       <c r="Y38" t="n">
-        <v>1878.515311311824</v>
+        <v>1209.794425280844</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
@@ -7256,13 +7256,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>391.878965009939</v>
+        <v>332.1920961943572</v>
       </c>
       <c r="C40" t="n">
-        <v>222.942782082032</v>
+        <v>332.1920961943572</v>
       </c>
       <c r="D40" t="n">
-        <v>222.942782082032</v>
+        <v>182.0754567820215</v>
       </c>
       <c r="E40" t="n">
-        <v>222.942782082032</v>
+        <v>182.0754567820215</v>
       </c>
       <c r="F40" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
         <v>53.94298182036445</v>
@@ -7338,46 +7338,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610024</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V40" t="n">
-        <v>438.9553738610024</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W40" t="n">
-        <v>438.9553738610024</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X40" t="n">
-        <v>438.9553738610024</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y40" t="n">
-        <v>438.9553738610024</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1317.927233509001</v>
+        <v>1034.617283051398</v>
       </c>
       <c r="C41" t="n">
-        <v>1317.927233509001</v>
+        <v>1034.617283051398</v>
       </c>
       <c r="D41" t="n">
-        <v>959.6615349022504</v>
+        <v>676.3515844446479</v>
       </c>
       <c r="E41" t="n">
-        <v>573.8732823040061</v>
+        <v>290.5633318464036</v>
       </c>
       <c r="F41" t="n">
-        <v>573.8732823040061</v>
+        <v>290.5633318464036</v>
       </c>
       <c r="G41" t="n">
-        <v>155.909474202193</v>
+        <v>290.5633318464036</v>
       </c>
       <c r="H41" t="n">
-        <v>155.909474202193</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7429,34 +7429,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U41" t="n">
-        <v>2388.358616186807</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V41" t="n">
-        <v>2057.295728843237</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W41" t="n">
-        <v>1704.527073573123</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X41" t="n">
-        <v>1704.527073573123</v>
+        <v>1421.21712311552</v>
       </c>
       <c r="Y41" t="n">
-        <v>1704.527073573123</v>
+        <v>1421.21712311552</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615929</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
         <v>2646.935720430048</v>
@@ -7535,7 +7535,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>517.6822058285749</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C43" t="n">
-        <v>348.7460229006679</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D43" t="n">
-        <v>348.7460229006679</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E43" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>517.6822058285749</v>
+        <v>705.6168211859363</v>
       </c>
       <c r="U43" t="n">
-        <v>517.6822058285749</v>
+        <v>705.6168211859363</v>
       </c>
       <c r="V43" t="n">
-        <v>517.6822058285749</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="W43" t="n">
-        <v>517.6822058285749</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X43" t="n">
-        <v>517.6822058285749</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y43" t="n">
-        <v>517.6822058285749</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>936.2491605982761</v>
+        <v>1920.409918978288</v>
       </c>
       <c r="C44" t="n">
-        <v>936.2491605982761</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D44" t="n">
-        <v>936.2491605982761</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E44" t="n">
-        <v>625.3727659270879</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F44" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.546461473041</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X44" t="n">
-        <v>936.2491605982761</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y44" t="n">
-        <v>936.2491605982761</v>
+        <v>2307.00975904241</v>
       </c>
     </row>
     <row r="45">
@@ -7703,73 +7703,73 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L45" t="n">
-        <v>713.806220357135</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>500.8207968750363</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U46" t="n">
-        <v>500.8207968750363</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V46" t="n">
-        <v>500.8207968750363</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W46" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>356.2611315939937</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>184.6294155606472</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8771,25 +8771,25 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K12" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>399.2039605324505</v>
+        <v>274.3455134968399</v>
       </c>
       <c r="N12" t="n">
-        <v>212.3582274761389</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>84.40768042974369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>240.5849052262375</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9020,10 +9020,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>58.05218216312529</v>
       </c>
       <c r="P15" t="n">
-        <v>48.2163182233385</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>435.9238900028825</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>435.9238900028825</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451758</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711641</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>162.5207159210556</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22597,25 +22597,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>338.0479125612334</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,19 +22625,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>37.59983135008879</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22682,19 +22682,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="4">
@@ -22792,13 +22792,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>329.5048015845142</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22837,22 +22837,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>315.8939308547783</v>
       </c>
     </row>
     <row r="6">
@@ -22865,16 +22865,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>26.81413372039827</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.655052377666919</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22983,7 +22983,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -22992,13 +22992,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>93.55107118671071</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23074,7 +23074,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>138.6760617849701</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23083,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>246.9027416247241</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,7 +23156,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>70.3588251877606</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23168,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23235,13 +23235,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,19 +23260,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>344.5137802719416</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>105.7738563699063</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>130.719532039356</v>
       </c>
       <c r="G11" t="n">
-        <v>147.1011673447406</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H11" t="n">
         <v>338.0329468943008</v>
@@ -23311,10 +23311,10 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611361</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23339,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23357,7 +23357,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268739</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>171.0540959567874</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>214.6418569734203</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.700786234059393</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>111.3918043887132</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>265.2894136786556</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.4633753356636</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>330.8786841952548</v>
+        <v>218.9851518743475</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1163791463314</v>
+        <v>178.1163791463313</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>97.14353343492375</v>
       </c>
       <c r="S14" t="n">
-        <v>189.8931039215388</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.4215416234949</v>
       </c>
       <c r="U14" t="n">
         <v>251.2785039334788</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23579,13 +23579,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>136.8944188046378</v>
@@ -23594,7 +23594,7 @@
         <v>107.898099562911</v>
       </c>
       <c r="I15" t="n">
-        <v>73.93425515493648</v>
+        <v>73.93425515493647</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.2743413282672</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23630,10 +23630,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>125.3448960396702</v>
+        <v>225.9118361363319</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>58.53898341232264</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23670,13 +23670,13 @@
         <v>167.6144703808229</v>
       </c>
       <c r="H16" t="n">
-        <v>158.8796654153679</v>
+        <v>158.8796654153678</v>
       </c>
       <c r="I16" t="n">
         <v>144.1278231270811</v>
       </c>
       <c r="J16" t="n">
-        <v>66.73999539781617</v>
+        <v>66.73999539781613</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.63455058802096</v>
+        <v>54.63455058802092</v>
       </c>
       <c r="R16" t="n">
-        <v>160.3641786191054</v>
+        <v>160.3641786191053</v>
       </c>
       <c r="S16" t="n">
         <v>217.4550733994452</v>
       </c>
       <c r="T16" t="n">
-        <v>95.32658276825066</v>
+        <v>226.33686925111</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2984925031653</v>
+        <v>155.2882060203056</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>191.2345173934643</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>221.0888883423789</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23907,13 +23907,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>61.5316190581546</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>69.58249272689014</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>90.32215478228461</v>
+        <v>93.43279002699396</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>150.3943596084589</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="23">
@@ -24211,13 +24211,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>108.99525404878</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>30.3898744131077</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>92.94735719746285</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
@@ -24417,7 +24417,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>48.31847529534909</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>38.62771628296794</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>100.2584763889026</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24621,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>40.32635200869768</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24657,10 +24657,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24685,22 +24685,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>57.50526104653167</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>172.4905932964275</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24855,13 +24855,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>106.1142351356667</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>35.43826180874018</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>336.3937521808888</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>48.67399259254836</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,13 +24976,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>130.3958356744437</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>211.1051349887981</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>314.7149062534672</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>325.6467465530013</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>157.4983735401874</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>116.2199130299139</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25444,19 +25444,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>112.9009372043561</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>133.2263354193845</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>18.56989781089081</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>241.5999424834396</v>
       </c>
       <c r="I41" t="n">
-        <v>50.98448878685097</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25788,28 +25788,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,28 +25830,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>16.69279486400319</v>
+        <v>202.7480640677913</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>74.74425144011389</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>74.16273934778548</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>69.82361682150307</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490531.2536378616</v>
+        <v>490531.2536378615</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490531.2536378615</v>
+        <v>490531.2536378616</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>519887.7922952696</v>
+        <v>519887.7922952695</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>671754.6743378495</v>
+        <v>671754.6743378497</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>819401.8737535684</v>
+        <v>819401.8737535685</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>819401.8737535683</v>
+        <v>819401.8737535684</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>819401.8737535685</v>
+        <v>819401.8737535683</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>819401.8737535683</v>
+        <v>819401.8737535684</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>819401.8737535683</v>
+        <v>819401.8737535685</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>819401.8737535684</v>
+        <v>819401.8737535683</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>819401.8737535685</v>
+        <v>819401.8737535683</v>
       </c>
     </row>
   </sheetData>
@@ -26325,13 +26325,13 @@
         <v>150604.5581398032</v>
       </c>
       <c r="F2" t="n">
-        <v>198862.5864584593</v>
+        <v>198862.5864584594</v>
       </c>
       <c r="G2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="H2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="I2" t="n">
         <v>245779.7185133939</v>
@@ -26349,13 +26349,13 @@
         <v>245779.7185133939</v>
       </c>
       <c r="N2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="O2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133938</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>38628.88112923566</v>
+        <v>38628.88112923561</v>
       </c>
       <c r="F3" t="n">
-        <v>195194.8921689326</v>
+        <v>195194.8921689329</v>
       </c>
       <c r="G3" t="n">
-        <v>185152.0893328027</v>
+        <v>185152.0893328024</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213648</v>
+        <v>8757.582995213606</v>
       </c>
       <c r="N3" t="n">
-        <v>49441.87186138663</v>
+        <v>49441.87186138676</v>
       </c>
       <c r="O3" t="n">
-        <v>47231.86264112651</v>
+        <v>47231.86264112643</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26478,10 +26478,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>17553.77951678015</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="F5" t="n">
-        <v>33615.28060221575</v>
+        <v>33615.28060221578</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26508,10 +26508,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50417.14319125191</v>
+        <v>-39420.93363321546</v>
       </c>
       <c r="C6" t="n">
-        <v>30352.28834029583</v>
+        <v>41348.49789833224</v>
       </c>
       <c r="D6" t="n">
-        <v>30352.28834029582</v>
+        <v>41348.49789833221</v>
       </c>
       <c r="E6" t="n">
-        <v>32192.47291926767</v>
+        <v>42692.73025145978</v>
       </c>
       <c r="F6" t="n">
-        <v>-90908.86065203149</v>
+        <v>-82963.4401131803</v>
       </c>
       <c r="G6" t="n">
-        <v>-48332.82833950793</v>
+        <v>-42871.25596827029</v>
       </c>
       <c r="H6" t="n">
-        <v>136819.2609932949</v>
+        <v>142280.8333645321</v>
       </c>
       <c r="I6" t="n">
-        <v>136819.2609932948</v>
+        <v>142280.8333645322</v>
       </c>
       <c r="J6" t="n">
-        <v>73759.31839418862</v>
+        <v>79220.89076542592</v>
       </c>
       <c r="K6" t="n">
-        <v>136819.2609932948</v>
+        <v>142280.8333645322</v>
       </c>
       <c r="L6" t="n">
-        <v>136819.2609932948</v>
+        <v>142280.8333645322</v>
       </c>
       <c r="M6" t="n">
-        <v>128061.6779980812</v>
+        <v>133523.2503693186</v>
       </c>
       <c r="N6" t="n">
-        <v>87377.38913190816</v>
+        <v>92838.96150314537</v>
       </c>
       <c r="O6" t="n">
-        <v>89587.39835216834</v>
+        <v>95048.9707234057</v>
       </c>
       <c r="P6" t="n">
-        <v>136819.2609932949</v>
+        <v>142280.8333645321</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="F3" t="n">
-        <v>208.7913421435326</v>
+        <v>208.7913421435329</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
@@ -26761,25 +26761,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="F4" t="n">
-        <v>478.0202194652425</v>
+        <v>478.0202194652429</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26822,16 +26822,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
     </row>
   </sheetData>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="F3" t="n">
-        <v>173.7700814244073</v>
+        <v>173.7700814244076</v>
       </c>
       <c r="G3" t="n">
-        <v>168.9523220735541</v>
+        <v>168.9523220735537</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>35.14222482469643</v>
+        <v>35.14222482469637</v>
       </c>
       <c r="F4" t="n">
-        <v>201.863705762887</v>
+        <v>201.8637057628874</v>
       </c>
       <c r="G4" t="n">
-        <v>196.2670532893131</v>
+        <v>196.2670532893127</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469643</v>
+        <v>35.14222482469626</v>
       </c>
       <c r="N4" t="n">
-        <v>201.863705762887</v>
+        <v>201.8637057628875</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893132</v>
+        <v>196.2670532893129</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469643</v>
+        <v>35.14222482469637</v>
       </c>
       <c r="N4" t="n">
-        <v>201.863705762887</v>
+        <v>201.8637057628874</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893131</v>
+        <v>196.2670532893127</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I11" t="n">
-        <v>5.42776745276012</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K11" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L11" t="n">
-        <v>22.21755819470702</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M11" t="n">
-        <v>24.72131435677233</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N11" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O11" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P11" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R11" t="n">
-        <v>8.84383625587038</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S11" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T11" t="n">
-        <v>0.616303794162698</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I12" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J12" t="n">
-        <v>7.116914878779991</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K12" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L12" t="n">
-        <v>16.35591992358773</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M12" t="n">
-        <v>19.08658709192331</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N12" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O12" t="n">
-        <v>17.92262575689049</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P12" t="n">
-        <v>14.38448725650263</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.615648792164377</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R12" t="n">
-        <v>4.676990252263571</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S12" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I13" t="n">
-        <v>1.899185745227322</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J13" t="n">
-        <v>4.464923682174389</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K13" t="n">
-        <v>7.337241180170847</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L13" t="n">
-        <v>9.389142586894685</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M13" t="n">
-        <v>9.89953440294882</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N13" t="n">
-        <v>9.664145601394052</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O13" t="n">
-        <v>8.926402650179687</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P13" t="n">
-        <v>7.638079550938414</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.288210368587926</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R13" t="n">
-        <v>2.839592713390063</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S13" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8393621794714873</v>
+        <v>0.8393621794714884</v>
       </c>
       <c r="H14" t="n">
-        <v>8.596117920512372</v>
+        <v>8.596117920512382</v>
       </c>
       <c r="I14" t="n">
-        <v>32.35951042407455</v>
+        <v>32.35951042407459</v>
       </c>
       <c r="J14" t="n">
-        <v>71.23981577991822</v>
+        <v>71.2398157799183</v>
       </c>
       <c r="K14" t="n">
-        <v>106.7700168369463</v>
+        <v>106.7700168369464</v>
       </c>
       <c r="L14" t="n">
-        <v>132.4576471369469</v>
+        <v>132.457647136947</v>
       </c>
       <c r="M14" t="n">
-        <v>147.3846542961229</v>
+        <v>147.3846542961231</v>
       </c>
       <c r="N14" t="n">
-        <v>149.7694920885463</v>
+        <v>149.7694920885465</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4230844164267</v>
+        <v>141.4230844164268</v>
       </c>
       <c r="P14" t="n">
-        <v>120.7013306107243</v>
+        <v>120.7013306107245</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.64167255840164</v>
+        <v>90.64167255840175</v>
       </c>
       <c r="R14" t="n">
-        <v>52.72558450622586</v>
+        <v>52.72558450622593</v>
       </c>
       <c r="S14" t="n">
-        <v>19.12696566470654</v>
+        <v>19.12696566470656</v>
       </c>
       <c r="T14" t="n">
-        <v>3.674307940636438</v>
+        <v>3.674307940636442</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06714897435771898</v>
+        <v>0.06714897435771905</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4490983585728816</v>
+        <v>0.4490983585728821</v>
       </c>
       <c r="H15" t="n">
-        <v>4.337344673585462</v>
+        <v>4.337344673585467</v>
       </c>
       <c r="I15" t="n">
-        <v>15.4623776964786</v>
+        <v>15.46237769647862</v>
       </c>
       <c r="J15" t="n">
-        <v>42.42994623692299</v>
+        <v>42.42994623692304</v>
       </c>
       <c r="K15" t="n">
-        <v>72.51953626130606</v>
+        <v>72.51953626130614</v>
       </c>
       <c r="L15" t="n">
-        <v>97.51146596995834</v>
+        <v>97.51146596995846</v>
       </c>
       <c r="M15" t="n">
-        <v>113.7912814682253</v>
+        <v>113.7912814682254</v>
       </c>
       <c r="N15" t="n">
-        <v>116.8029980921636</v>
+        <v>116.8029980921637</v>
       </c>
       <c r="O15" t="n">
-        <v>106.8519239364171</v>
+        <v>106.8519239364173</v>
       </c>
       <c r="P15" t="n">
-        <v>85.75808919099174</v>
+        <v>85.75808919099185</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.32701152589976</v>
+        <v>57.32701152589983</v>
       </c>
       <c r="R15" t="n">
-        <v>27.88349282437594</v>
+        <v>27.88349282437597</v>
       </c>
       <c r="S15" t="n">
-        <v>8.341805037526983</v>
+        <v>8.341805037526992</v>
       </c>
       <c r="T15" t="n">
-        <v>1.81018154179157</v>
+        <v>1.810181541791572</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02954594464295274</v>
+        <v>0.02954594464295278</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3765089776358785</v>
+        <v>0.3765089776358789</v>
       </c>
       <c r="H16" t="n">
-        <v>3.347507092071722</v>
+        <v>3.347507092071726</v>
       </c>
       <c r="I16" t="n">
-        <v>11.32265180017715</v>
+        <v>11.32265180017716</v>
       </c>
       <c r="J16" t="n">
-        <v>26.61918471885661</v>
+        <v>26.61918471885664</v>
       </c>
       <c r="K16" t="n">
-        <v>43.74349758351387</v>
+        <v>43.74349758351393</v>
       </c>
       <c r="L16" t="n">
-        <v>55.97661654779234</v>
+        <v>55.97661654779241</v>
       </c>
       <c r="M16" t="n">
-        <v>59.01949364886774</v>
+        <v>59.01949364886782</v>
       </c>
       <c r="N16" t="n">
-        <v>57.61614200495224</v>
+        <v>57.61614200495232</v>
       </c>
       <c r="O16" t="n">
-        <v>53.21783258438764</v>
+        <v>53.21783258438771</v>
       </c>
       <c r="P16" t="n">
-        <v>45.53704944061568</v>
+        <v>45.53704944061574</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.52749266367343</v>
+        <v>31.52749266367346</v>
       </c>
       <c r="R16" t="n">
-        <v>16.92921275806413</v>
+        <v>16.92921275806415</v>
       </c>
       <c r="S16" t="n">
-        <v>6.561524637527079</v>
+        <v>6.561524637527087</v>
       </c>
       <c r="T16" t="n">
-        <v>1.60872017717148</v>
+        <v>1.608720177171482</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0205368533255934</v>
+        <v>0.02053685332559342</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L42" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M42" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N42" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O42" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,25 +34304,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N45" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,25 +34541,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>217.7067518141195</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35427,10 +35427,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P11" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.212927593424828</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L12" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
-        <v>276.1565137023555</v>
+        <v>151.2980666667449</v>
       </c>
       <c r="N12" t="n">
-        <v>100.6082676511396</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O12" t="n">
-        <v>269.1887005891756</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>198.8728484821096</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>79.71116244199195</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,19 +35573,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M13" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N13" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O13" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P13" t="n">
-        <v>4.916638815831902</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>59.2905264253057</v>
+        <v>59.29052642530579</v>
       </c>
       <c r="K14" t="n">
-        <v>210.8255783631305</v>
+        <v>210.8255783631306</v>
       </c>
       <c r="L14" t="n">
-        <v>314.3524467174101</v>
+        <v>314.3524467174102</v>
       </c>
       <c r="M14" t="n">
-        <v>366.5519545616827</v>
+        <v>366.5519545616828</v>
       </c>
       <c r="N14" t="n">
-        <v>357.7033529039395</v>
+        <v>357.7033529039397</v>
       </c>
       <c r="O14" t="n">
-        <v>292.1250542574853</v>
+        <v>292.1250542574854</v>
       </c>
       <c r="P14" t="n">
-        <v>211.2670430269374</v>
+        <v>211.2670430269376</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.65097334385683</v>
+        <v>80.65097334385695</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>41.68335491066519</v>
       </c>
       <c r="K15" t="n">
-        <v>175.2630025131845</v>
+        <v>199.1433342995257</v>
       </c>
       <c r="L15" t="n">
-        <v>329.7974314935433</v>
+        <v>329.7974314935435</v>
       </c>
       <c r="M15" t="n">
-        <v>437.3623112962068</v>
+        <v>437.362311296207</v>
       </c>
       <c r="N15" t="n">
-        <v>464.8036603523838</v>
+        <v>464.803660352384</v>
       </c>
       <c r="O15" t="n">
-        <v>358.1179987687022</v>
+        <v>22.30786165509811</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>270.2464504165988</v>
       </c>
       <c r="Q15" t="n">
-        <v>127.4225251757273</v>
+        <v>127.4225251757274</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>21.47400575763102</v>
+        <v>21.47400575763108</v>
       </c>
       <c r="L16" t="n">
-        <v>83.56664180810847</v>
+        <v>83.56664180810856</v>
       </c>
       <c r="M16" t="n">
-        <v>98.60337061070834</v>
+        <v>98.6033706107084</v>
       </c>
       <c r="N16" t="n">
-        <v>101.7483143841808</v>
+        <v>101.7483143841809</v>
       </c>
       <c r="O16" t="n">
-        <v>77.80296049842732</v>
+        <v>77.80296049842738</v>
       </c>
       <c r="P16" t="n">
-        <v>42.81560870550917</v>
+        <v>42.81560870550923</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35980,7 +35980,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36214,13 +36214,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,13 +36685,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>515.9012490932192</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37633,13 +37633,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37952,10 +37952,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O43" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343413</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38189,10 +38189,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
